--- a/populasi 5 iterasi 5.xlsx
+++ b/populasi 5 iterasi 5.xlsx
@@ -1,40 +1,495 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="22770" windowHeight="12555"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>individu 5</t>
+  </si>
+  <si>
+    <t>Iterasi 1</t>
+  </si>
+  <si>
+    <t>Iterasi 2</t>
+  </si>
+  <si>
+    <t>Iterasi 3</t>
+  </si>
+  <si>
+    <t>Iterasi 4</t>
+  </si>
+  <si>
+    <t>Iterasi 5</t>
+  </si>
+  <si>
+    <t>Percobaan 1</t>
+  </si>
+  <si>
+    <t>Percobaan 2</t>
+  </si>
+  <si>
+    <t>Percobaan 3</t>
+  </si>
+  <si>
+    <t>Percobaan 4</t>
+  </si>
+  <si>
+    <t>Percobaan 5</t>
+  </si>
+  <si>
+    <t>Percobaan 6</t>
+  </si>
+  <si>
+    <t>Percobaan 7</t>
+  </si>
+  <si>
+    <t>Percobaan 8</t>
+  </si>
+  <si>
+    <t>Percobaan 9</t>
+  </si>
+  <si>
+    <t>Percobaan 10</t>
+  </si>
+  <si>
+    <t>Percobaan 11</t>
+  </si>
+  <si>
+    <t>Percobaan 12</t>
+  </si>
+  <si>
+    <t>Percobaan 13</t>
+  </si>
+  <si>
+    <t>Percobaan 14</t>
+  </si>
+  <si>
+    <t>Percobaan 15</t>
+  </si>
+  <si>
+    <t>Percobaan 16</t>
+  </si>
+  <si>
+    <t>Percobaan 17</t>
+  </si>
+  <si>
+    <t>Percobaan 18</t>
+  </si>
+  <si>
+    <t>Percobaan 19</t>
+  </si>
+  <si>
+    <t>Percobaan 20</t>
+  </si>
+  <si>
+    <t>Percobaan 21</t>
+  </si>
+  <si>
+    <t>Percobaan 22</t>
+  </si>
+  <si>
+    <t>Percobaan 23</t>
+  </si>
+  <si>
+    <t>Percobaan 24</t>
+  </si>
+  <si>
+    <t>Percobaan 25</t>
+  </si>
+  <si>
+    <t>Percobaan 26</t>
+  </si>
+  <si>
+    <t>Percobaan 27</t>
+  </si>
+  <si>
+    <t>Percobaan 28</t>
+  </si>
+  <si>
+    <t>Percobaan 29</t>
+  </si>
+  <si>
+    <t>Percobaan 30</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,86 +497,3556 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID" altLang="en-US"/>
+              <a:t>Individu 5</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 27</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percobaan 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Iterasi 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iterasi 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterasi 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iterasi 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iterasi 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="537918190"/>
+        <c:axId val="712154417"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="537918190"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712154417"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="712154417"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537918190"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4445</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>634365</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4928870" y="198120"/>
+        <a:ext cx="6802120" cy="5890260"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,589 +4328,657 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="6" width="7.33333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>individu 5</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>individu 5</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>individu 5</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>individu 5</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>individu 5</t>
-        </is>
-      </c>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Iterasi 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Iterasi 2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Iterasi 3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Iterasi 4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Iterasi 5</t>
-        </is>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3">
         <v>2.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>14.5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
         <v>8.5</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8">
         <v>5.5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8">
         <v>2.5</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>7.5</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9">
         <v>2.5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9">
         <v>1.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9">
         <v>1.5</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9">
         <v>1.5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10">
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>8.5</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11">
         <v>3.5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11">
         <v>2.5</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11">
         <v>2.5</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11">
         <v>2.5</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12">
         <v>1.5</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12">
         <v>1.5</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
         <v>7.5</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13">
         <v>3.5</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13">
         <v>3.5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13">
         <v>3.5</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13">
         <v>2.5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>11.5</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14">
         <v>3.5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14">
         <v>2.5</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15">
         <v>2.5</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15">
         <v>2.5</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15">
         <v>2.5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
         <v>8.5</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16">
         <v>3.5</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16">
         <v>3.5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16">
         <v>3</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
         <v>9.5</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17">
         <v>3.5</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17">
         <v>3.5</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17">
         <v>2.5</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>2.5</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19">
         <v>3.5</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19">
         <v>2.5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>2.5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
         <v>11.5</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20">
         <v>2</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
         <v>8</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21">
         <v>2.5</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21">
         <v>2.5</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21">
         <v>2.5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21">
         <v>2.5</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>6.5</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22">
         <v>2.5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22">
         <v>2.5</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22">
         <v>2.5</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22">
         <v>2.5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
         <v>5.5</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23">
         <v>2.5</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23">
         <v>2.5</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23">
         <v>2.5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23">
         <v>2.5</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
         <v>14</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24">
         <v>5.5</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24">
         <v>2.5</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24">
         <v>2.5</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24">
         <v>2.5</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="B25" t="n">
+      <c r="C25">
         <v>4.5</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25">
         <v>2.5</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25">
         <v>1.5</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25">
         <v>1.5</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
         <v>9.5</v>
       </c>
-      <c r="B26" t="n">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26">
         <v>2</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
         <v>4.5</v>
       </c>
-      <c r="B27" t="n">
+      <c r="C27">
         <v>2</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
         <v>11</v>
       </c>
-      <c r="B28" t="n">
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28">
         <v>2</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28">
         <v>2</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
         <v>9</v>
       </c>
-      <c r="B29" t="n">
+      <c r="C29">
         <v>2.5</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29">
         <v>2.5</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29">
         <v>2.5</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29">
         <v>2.5</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
         <v>6</v>
       </c>
-      <c r="B30" t="n">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
         <v>7</v>
       </c>
-      <c r="B31" t="n">
+      <c r="C31">
         <v>2.5</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31">
         <v>2.5</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31">
         <v>2.5</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31">
         <v>2.5</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
         <v>9</v>
       </c>
-      <c r="B32" t="n">
+      <c r="C32">
         <v>3.5</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32">
         <v>2.5</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32">
         <v>2.5</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>